--- a/assignment72/HeatForOMP/Task_4/Task4.xlsx
+++ b/assignment72/HeatForOMP/Task_4/Task4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\Task_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF9C140-B018-48ED-B26E-7688E7220B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B233590-BF2A-497D-AF02-FF9E62D63FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8A7D55B9-0EE1-49B5-95D0-033DB3A3E25E}"/>
   </bookViews>
@@ -116,10 +116,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,98 +446,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2">
         <v>5</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2">
         <v>6</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2">
         <v>7</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2">
         <v>8</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -828,98 +828,98 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
         <v>4</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
         <v>5</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2">
         <v>6</v>
       </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
         <v>7</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2">
         <v>8</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1" t="s">
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1008,111 +1008,111 @@
       <c r="A16">
         <v>6500</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f>$B24/B4</f>
         <v>13.243856172440468</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f t="shared" ref="C16:AB19" si="0">$B24/C4</f>
         <v>13.491779032484427</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>13.286943023911032</v>
       </c>
-      <c r="E16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="E16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="1">
         <f t="shared" si="0"/>
         <v>13.343262865684391</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <f t="shared" si="0"/>
         <v>13.586532294010851</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <f t="shared" si="0"/>
         <v>12.807497591670254</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <f t="shared" si="0"/>
         <v>13.64602214408945</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <f t="shared" si="0"/>
         <v>13.414013695983513</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="1">
         <f t="shared" si="0"/>
         <v>13.096325948902816</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="1">
         <f t="shared" si="0"/>
         <v>13.484063788006301</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="1">
         <f t="shared" si="0"/>
         <v>13.216264805414552</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="1">
         <f t="shared" si="0"/>
         <v>13.124245192863068</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="1">
         <f t="shared" si="0"/>
         <v>14.058970436034739</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="1">
         <f t="shared" si="0"/>
         <v>13.664822428271519</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AB16" s="1">
         <f t="shared" si="0"/>
         <v>13.146472828259453</v>
       </c>
@@ -1121,111 +1121,111 @@
       <c r="A17">
         <v>8500</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f t="shared" ref="B17:Q19" si="1">$B25/B5</f>
         <v>12.546807758421007</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f t="shared" si="1"/>
         <v>12.679278058395958</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>12.205754337693758</v>
       </c>
-      <c r="E17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="E17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="1">
         <f t="shared" si="1"/>
         <v>12.632976340258386</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <f t="shared" si="0"/>
         <v>12.625692361481699</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <f t="shared" si="0"/>
         <v>12.452382968940944</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="1">
         <f t="shared" si="0"/>
         <v>12.518650067204709</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="1">
         <f t="shared" si="0"/>
         <v>12.639337316475595</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="1">
         <f t="shared" si="0"/>
         <v>12.36285774347578</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="1">
         <f t="shared" si="0"/>
         <v>12.511573342410465</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="1">
         <f t="shared" si="0"/>
         <v>12.624375942985415</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="1">
         <f t="shared" si="0"/>
         <v>12.488496541681835</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="1">
         <f t="shared" si="0"/>
         <v>12.531072689638378</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AA17" s="1">
         <f t="shared" si="0"/>
         <v>12.700557790557051</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AB17" s="1">
         <f t="shared" si="0"/>
         <v>12.399424110262402</v>
       </c>
@@ -1234,111 +1234,111 @@
       <c r="A18">
         <v>10500</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <f t="shared" si="1"/>
         <v>12.25383862906388</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>12.220974966229294</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>11.986572605170284</v>
       </c>
-      <c r="E18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="E18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="1">
         <f t="shared" si="0"/>
         <v>12.282148485413847</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <f t="shared" si="0"/>
         <v>12.222568093385215</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="1">
         <f t="shared" si="0"/>
         <v>12.224354820866983</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="1">
         <f t="shared" si="0"/>
         <v>12.204970218137351</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="1">
         <f t="shared" si="0"/>
         <v>12.201360490565294</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="1">
         <f t="shared" si="0"/>
         <v>12.058466814762852</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="1">
         <f t="shared" si="0"/>
         <v>12.188239094296813</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="1">
         <f t="shared" si="0"/>
         <v>12.259227855524035</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="1">
         <f t="shared" si="0"/>
         <v>12.067684891222104</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="1">
         <f t="shared" si="0"/>
         <v>12.214076211605038</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18" s="1">
         <f t="shared" si="0"/>
         <v>12.362333838095278</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AB18" s="1">
         <f t="shared" si="0"/>
         <v>12.12044124444723</v>
       </c>
@@ -1347,111 +1347,111 @@
       <c r="A19">
         <v>12500</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <f t="shared" si="1"/>
         <v>12.190725614954994</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>11.990488417832168</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>11.94497040615008</v>
       </c>
-      <c r="E19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="2">
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" si="0"/>
         <v>12.17919136090209</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <f t="shared" si="0"/>
         <v>12.011191712113044</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <f t="shared" si="0"/>
         <v>12.147475155597499</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="1">
         <f t="shared" si="0"/>
         <v>12.143576833165039</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="1">
         <f t="shared" si="0"/>
         <v>11.814153909092868</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="1">
         <f t="shared" si="0"/>
         <v>12.121645094568361</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="1">
         <f t="shared" si="0"/>
         <v>12.066331481476391</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="1">
         <f t="shared" si="0"/>
         <v>12.038665441630213</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="1">
         <f t="shared" si="0"/>
         <v>11.994223507101754</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="1">
         <f t="shared" si="0"/>
         <v>12.149122612787158</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="1">
         <f t="shared" si="0"/>
         <v>12.018130643580351</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AB19" s="1">
         <f t="shared" si="0"/>
         <v>12.092092649116816</v>
       </c>
@@ -1498,6 +1498,31 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="Z14:AB14"/>
     <mergeCell ref="W13:Y13"/>
     <mergeCell ref="Z13:AB13"/>
@@ -1509,31 +1534,6 @@
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assignment72/HeatForOMP/Task_4/Task4.xlsx
+++ b/assignment72/HeatForOMP/Task_4/Task4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment72\HeatForOMP\Task_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B233590-BF2A-497D-AF02-FF9E62D63FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4FAB58-C597-446C-A3D4-71A36504ECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8A7D55B9-0EE1-49B5-95D0-033DB3A3E25E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>Only MPI 48 processes</t>
   </si>
@@ -80,12 +80,15 @@
   <si>
     <t>SpeedUp</t>
   </si>
+  <si>
+    <t>1 MPI: 48 OMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +96,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,16 +127,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA40F73-FD6C-4E51-B8C1-BD879956D1C2}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,98 +485,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1">
         <v>6</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1">
         <v>7</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1">
         <v>8</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -635,6 +674,30 @@
       <c r="D4">
         <v>9.4057000000000002E-2</v>
       </c>
+      <c r="E4">
+        <v>0.19485</v>
+      </c>
+      <c r="F4">
+        <v>0.19485</v>
+      </c>
+      <c r="H4">
+        <v>0.19485</v>
+      </c>
+      <c r="I4">
+        <v>0.19485</v>
+      </c>
+      <c r="K4">
+        <v>9.2485999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>9.5280000000000004E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.123317</v>
+      </c>
+      <c r="O4">
+        <v>0.123076</v>
+      </c>
       <c r="Q4">
         <v>9.3659999999999993E-2</v>
       </c>
@@ -685,6 +748,30 @@
       <c r="D5">
         <v>0.16863800000000001</v>
       </c>
+      <c r="E5">
+        <v>0.33319399999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.33319399999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.33319399999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.33319399999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.16225000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.16353100000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.21462800000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.21407000000000001</v>
+      </c>
       <c r="Q5">
         <v>0.162935</v>
       </c>
@@ -735,6 +822,30 @@
       <c r="D6">
         <v>0.258129</v>
       </c>
+      <c r="E6">
+        <v>0.510328</v>
+      </c>
+      <c r="F6">
+        <v>0.510328</v>
+      </c>
+      <c r="H6">
+        <v>0.510328</v>
+      </c>
+      <c r="I6">
+        <v>0.510328</v>
+      </c>
+      <c r="K6">
+        <v>0.24871599999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.256162</v>
+      </c>
+      <c r="N6">
+        <v>0.33057900000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.33019999999999999</v>
+      </c>
       <c r="Q6">
         <v>0.251917</v>
       </c>
@@ -785,6 +896,30 @@
       <c r="D7">
         <v>0.367475</v>
       </c>
+      <c r="E7">
+        <v>0.72650099999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.72650099999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.72650099999999995</v>
+      </c>
+      <c r="I7">
+        <v>0.72650099999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.35708299999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.36882999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.46801399999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.48091400000000001</v>
+      </c>
       <c r="Q7">
         <v>0.36040800000000001</v>
       </c>
@@ -823,635 +958,638 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6">
         <v>4</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6">
         <v>5</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2">
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6">
         <v>6</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2">
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6">
         <v>7</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2">
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6">
         <v>8</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2" t="s">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2" t="s">
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" t="s">
-        <v>11</v>
-      </c>
-      <c r="W15" t="s">
-        <v>9</v>
-      </c>
-      <c r="X15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>6500</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <f>$B24/B4</f>
         <v>13.243856172440468</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <f t="shared" ref="C16:AB19" si="0">$B24/C4</f>
         <v>13.491779032484427</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>13.286943023911032</v>
       </c>
-      <c r="E16" s="1" t="e">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>6.413805491403644</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>6.413805491403644</v>
+      </c>
+      <c r="G16" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="1" t="e">
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>6.413805491403644</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>6.413805491403644</v>
+      </c>
+      <c r="J16" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="1" t="e">
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>13.512639750881215</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="0"/>
+        <v>13.116393786733836</v>
+      </c>
+      <c r="M16" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="1" t="e">
+      <c r="N16" s="7">
+        <f t="shared" si="0"/>
+        <v>10.134288054363957</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="0"/>
+        <v>10.154132405993044</v>
+      </c>
+      <c r="P16" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="7">
         <f t="shared" si="0"/>
         <v>13.343262865684391</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="7">
         <f t="shared" si="0"/>
         <v>13.586532294010851</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="7">
         <f t="shared" si="0"/>
         <v>12.807497591670254</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="7">
         <f t="shared" si="0"/>
         <v>13.64602214408945</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="7">
         <f t="shared" si="0"/>
         <v>13.414013695983513</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="7">
         <f t="shared" si="0"/>
         <v>13.096325948902816</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="7">
         <f t="shared" si="0"/>
         <v>13.484063788006301</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="7">
         <f t="shared" si="0"/>
         <v>13.216264805414552</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="7">
         <f t="shared" si="0"/>
         <v>13.124245192863068</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="7">
         <f t="shared" si="0"/>
         <v>14.058970436034739</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="7">
         <f t="shared" si="0"/>
         <v>13.664822428271519</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="7">
         <f t="shared" si="0"/>
         <v>13.146472828259453</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>8500</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <f t="shared" ref="B17:Q19" si="1">$B25/B5</f>
         <v>12.546807758421007</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <f t="shared" si="1"/>
         <v>12.679278058395958</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>12.205754337693758</v>
       </c>
-      <c r="E17" s="1" t="e">
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="G17" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="1" t="e">
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="J17" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="1" t="e">
+      <c r="K17" s="7">
+        <f t="shared" si="1"/>
+        <v>12.686311248073959</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="1"/>
+        <v>12.586934587325949</v>
+      </c>
+      <c r="M17" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="1" t="e">
+      <c r="N17" s="7">
+        <f t="shared" si="1"/>
+        <v>9.5903330413552741</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="1"/>
+        <v>9.6153314336432008</v>
+      </c>
+      <c r="P17" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="7">
         <f t="shared" si="1"/>
         <v>12.632976340258386</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="7">
         <f t="shared" si="0"/>
         <v>12.625692361481699</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="7">
         <f t="shared" si="0"/>
         <v>12.452382968940944</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="7">
         <f t="shared" si="0"/>
         <v>12.518650067204709</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="7">
         <f t="shared" si="0"/>
         <v>12.639337316475595</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="7">
         <f t="shared" si="0"/>
         <v>12.36285774347578</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="7">
         <f t="shared" si="0"/>
         <v>12.511573342410465</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="7">
         <f t="shared" si="0"/>
         <v>12.624375942985415</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="7">
         <f t="shared" si="0"/>
         <v>12.488496541681835</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="7">
         <f t="shared" si="0"/>
         <v>12.531072689638378</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="7">
         <f t="shared" si="0"/>
         <v>12.700557790557051</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="7">
         <f t="shared" si="0"/>
         <v>12.399424110262402</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>10500</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <f t="shared" si="1"/>
         <v>12.25383862906388</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
         <v>12.220974966229294</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>11.986572605170284</v>
       </c>
-      <c r="E18" s="1" t="e">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="G18" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="1" t="e">
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="J18" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="1" t="e">
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>12.440220974927227</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>12.078614314379182</v>
+      </c>
+      <c r="M18" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="1" t="e">
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>9.3595842446132398</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="0"/>
+        <v>9.3703270745003042</v>
+      </c>
+      <c r="P18" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="7">
         <f t="shared" si="0"/>
         <v>12.282148485413847</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="7">
         <f t="shared" si="0"/>
         <v>12.222568093385215</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="7">
         <f t="shared" si="0"/>
         <v>12.224354820866983</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="7">
         <f t="shared" si="0"/>
         <v>12.204970218137351</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="7">
         <f t="shared" si="0"/>
         <v>12.201360490565294</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="7">
         <f t="shared" si="0"/>
         <v>12.058466814762852</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="7">
         <f t="shared" si="0"/>
         <v>12.188239094296813</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="7">
         <f t="shared" si="0"/>
         <v>12.259227855524035</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="7">
         <f t="shared" si="0"/>
         <v>12.067684891222104</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="7">
         <f t="shared" si="0"/>
         <v>12.214076211605038</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="7">
         <f t="shared" si="0"/>
         <v>12.362333838095278</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="7">
         <f t="shared" si="0"/>
         <v>12.12044124444723</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>12500</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <f t="shared" si="1"/>
         <v>12.190725614954994</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
         <v>11.990488417832168</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>11.94497040615008</v>
       </c>
-      <c r="E19" s="1" t="e">
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="G19" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="1" t="e">
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="J19" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="1" t="e">
+      <c r="K19" s="7">
+        <f t="shared" si="0"/>
+        <v>12.292598639531988</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>11.901087221755281</v>
+      </c>
+      <c r="M19" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="1" t="e">
+      <c r="N19" s="7">
+        <f t="shared" si="0"/>
+        <v>9.3789459289679389</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="0"/>
+        <v>9.1273658076080135</v>
+      </c>
+      <c r="P19" s="7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="7">
         <f t="shared" si="0"/>
         <v>12.17919136090209</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="7">
         <f t="shared" si="0"/>
         <v>12.011191712113044</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="7">
         <f t="shared" si="0"/>
         <v>12.147475155597499</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="7">
         <f t="shared" si="0"/>
         <v>12.143576833165039</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="7">
         <f t="shared" si="0"/>
         <v>11.814153909092868</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="7">
         <f t="shared" si="0"/>
         <v>12.121645094568361</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="7">
         <f t="shared" si="0"/>
         <v>12.066331481476391</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="7">
         <f t="shared" si="0"/>
         <v>12.038665441630213</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="7">
         <f t="shared" si="0"/>
         <v>11.994223507101754</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="7">
         <f t="shared" si="0"/>
         <v>12.149122612787158</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19" s="7">
         <f t="shared" si="0"/>
         <v>12.018130643580351</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="7">
         <f t="shared" si="0"/>
         <v>12.092092649116816</v>
       </c>
@@ -1496,30 +1634,564 @@
         <v>4.3894780000000004</v>
       </c>
     </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3">
+        <v>6</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3">
+        <v>7</v>
+      </c>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3">
+        <v>8</v>
+      </c>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>6500</v>
+      </c>
+      <c r="B36" s="4">
+        <v>13.243856172440468</v>
+      </c>
+      <c r="C36" s="4">
+        <v>13.491779032484427</v>
+      </c>
+      <c r="D36" s="4">
+        <v>13.286943023911032</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6.413805491403644</v>
+      </c>
+      <c r="F36" s="4">
+        <v>6.413805491403644</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>6.413805491403644</v>
+      </c>
+      <c r="I36" s="4">
+        <v>6.413805491403644</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>13.512639750881215</v>
+      </c>
+      <c r="L36" s="4">
+        <v>13.116393786733836</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>10.134288054363957</v>
+      </c>
+      <c r="O36" s="4">
+        <v>10.154132405993044</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>13.343262865684391</v>
+      </c>
+      <c r="R36" s="4">
+        <v>13.586532294010851</v>
+      </c>
+      <c r="S36" s="4">
+        <v>12.807497591670254</v>
+      </c>
+      <c r="T36" s="4">
+        <v>13.64602214408945</v>
+      </c>
+      <c r="U36" s="4">
+        <v>13.414013695983513</v>
+      </c>
+      <c r="V36" s="4">
+        <v>13.096325948902816</v>
+      </c>
+      <c r="W36" s="4">
+        <v>13.484063788006301</v>
+      </c>
+      <c r="X36" s="4">
+        <v>13.216264805414552</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>13.124245192863068</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>14.058970436034739</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>13.664822428271519</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>13.146472828259453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>8500</v>
+      </c>
+      <c r="B37" s="4">
+        <v>12.546807758421007</v>
+      </c>
+      <c r="C37" s="4">
+        <v>12.679278058395958</v>
+      </c>
+      <c r="D37" s="4">
+        <v>12.205754337693758</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="F37" s="4">
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="I37" s="4">
+        <v>6.1776442552987154</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>12.686311248073959</v>
+      </c>
+      <c r="L37" s="4">
+        <v>12.586934587325949</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>9.5903330413552741</v>
+      </c>
+      <c r="O37" s="4">
+        <v>9.6153314336432008</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>12.632976340258386</v>
+      </c>
+      <c r="R37" s="4">
+        <v>12.625692361481699</v>
+      </c>
+      <c r="S37" s="4">
+        <v>12.452382968940944</v>
+      </c>
+      <c r="T37" s="4">
+        <v>12.518650067204709</v>
+      </c>
+      <c r="U37" s="4">
+        <v>12.639337316475595</v>
+      </c>
+      <c r="V37" s="4">
+        <v>12.36285774347578</v>
+      </c>
+      <c r="W37" s="4">
+        <v>12.511573342410465</v>
+      </c>
+      <c r="X37" s="4">
+        <v>12.624375942985415</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>12.488496541681835</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>12.531072689638378</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>12.700557790557051</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>12.399424110262402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>10500</v>
+      </c>
+      <c r="B38" s="4">
+        <v>12.25383862906388</v>
+      </c>
+      <c r="C38" s="4">
+        <v>12.220974966229294</v>
+      </c>
+      <c r="D38" s="4">
+        <v>11.986572605170284</v>
+      </c>
+      <c r="E38" s="4">
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="F38" s="4">
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="I38" s="4">
+        <v>6.0629281560094688</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>12.440220974927227</v>
+      </c>
+      <c r="L38" s="4">
+        <v>12.078614314379182</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>9.3595842446132398</v>
+      </c>
+      <c r="O38" s="4">
+        <v>9.3703270745003042</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>12.282148485413847</v>
+      </c>
+      <c r="R38" s="4">
+        <v>12.222568093385215</v>
+      </c>
+      <c r="S38" s="4">
+        <v>12.224354820866983</v>
+      </c>
+      <c r="T38" s="4">
+        <v>12.204970218137351</v>
+      </c>
+      <c r="U38" s="4">
+        <v>12.201360490565294</v>
+      </c>
+      <c r="V38" s="4">
+        <v>12.058466814762852</v>
+      </c>
+      <c r="W38" s="4">
+        <v>12.188239094296813</v>
+      </c>
+      <c r="X38" s="4">
+        <v>12.259227855524035</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>12.067684891222104</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>12.214076211605038</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>12.362333838095278</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>12.12044124444723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>12500</v>
+      </c>
+      <c r="B39" s="4">
+        <v>12.190725614954994</v>
+      </c>
+      <c r="C39" s="4">
+        <v>11.990488417832168</v>
+      </c>
+      <c r="D39" s="4">
+        <v>11.94497040615008</v>
+      </c>
+      <c r="E39" s="4">
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="F39" s="4">
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="I39" s="4">
+        <v>6.0419435073041887</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>12.292598639531988</v>
+      </c>
+      <c r="L39" s="4">
+        <v>11.901087221755281</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>9.3789459289679389</v>
+      </c>
+      <c r="O39" s="4">
+        <v>9.1273658076080135</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>12.17919136090209</v>
+      </c>
+      <c r="R39" s="4">
+        <v>12.011191712113044</v>
+      </c>
+      <c r="S39" s="4">
+        <v>12.147475155597499</v>
+      </c>
+      <c r="T39" s="4">
+        <v>12.143576833165039</v>
+      </c>
+      <c r="U39" s="4">
+        <v>11.814153909092868</v>
+      </c>
+      <c r="V39" s="4">
+        <v>12.121645094568361</v>
+      </c>
+      <c r="W39" s="4">
+        <v>12.066331481476391</v>
+      </c>
+      <c r="X39" s="4">
+        <v>12.038665441630213</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>11.994223507101754</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>12.149122612787158</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>12.018130643580351</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>12.092092649116816</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="B2:D2"/>
@@ -1534,6 +2206,28 @@
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
